--- a/MetroGraphe/MetroGraphe/bin/Debug/net8.0/metrostations.xlsx
+++ b/MetroGraphe/MetroGraphe/bin/Debug/net8.0/metrostations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\ESILV\GITHUB\MetroGraphe\MetroGraphe\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\ESILV\GITHUB\Projet_Livin-paris\MetroGraphe\MetroGraphe\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A307AE-ECA0-449B-AA00-7A01604A89B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7816BC42-A304-438E-B137-92F2E3878106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{825C45E6-0ABF-477A-BEDB-1A9DCAFC0835}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="248">
   <si>
     <t>ID Station</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Porte de Bagnolet</t>
   </si>
   <si>
-    <t>3bis</t>
-  </si>
-  <si>
     <t>Porte des Lilas</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
   </si>
   <si>
     <t>Porte d'Ivry</t>
-  </si>
-  <si>
-    <t>7bis</t>
   </si>
   <si>
     <t>Bolivar</t>
@@ -1340,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9854843F-1F45-484B-B599-7847B870B2AC}">
   <dimension ref="A1:C329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2058,7 +2052,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>60</v>
@@ -2069,7 +2063,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>61</v>
@@ -2079,41 +2073,41 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
         <v>62</v>
-      </c>
-      <c r="C67" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>62</v>
+      <c r="B68">
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>62</v>
+      <c r="B69">
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
-      <c r="B70" t="s">
-        <v>62</v>
+      <c r="B70">
+        <v>23</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>60</v>
@@ -2127,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2138,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2149,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2160,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2182,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2204,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2215,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2237,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2248,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2270,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2281,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2292,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2303,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2314,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2336,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2347,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2358,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2369,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2380,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2391,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2402,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2413,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2424,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2435,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2468,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2479,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2490,7 +2484,7 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2512,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2523,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2534,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2556,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2567,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2578,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2589,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2600,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2622,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2633,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2644,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2655,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2666,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2677,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2688,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2699,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2710,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2721,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2743,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2754,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2765,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2776,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2787,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2798,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2809,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2820,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2831,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2842,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,7 +2847,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2864,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2875,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2886,7 +2880,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2897,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2919,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2930,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2941,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2952,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2974,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2996,7 +2990,7 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -3007,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3018,7 +3012,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -3095,7 +3089,7 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -3106,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3128,7 +3122,7 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -3139,7 +3133,7 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -3150,7 +3144,7 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -3161,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3172,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -3183,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -3194,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -3205,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -3216,26 +3210,26 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>147</v>
       </c>
-      <c r="B171" t="s">
-        <v>146</v>
+      <c r="B171">
+        <v>27</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>35</v>
       </c>
-      <c r="B172" t="s">
-        <v>146</v>
+      <c r="B172">
+        <v>27</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>34</v>
@@ -3245,66 +3239,66 @@
       <c r="A173">
         <v>174</v>
       </c>
-      <c r="B173" t="s">
-        <v>146</v>
+      <c r="B173">
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>175</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174">
+        <v>27</v>
+      </c>
+      <c r="C174" t="s">
         <v>146</v>
-      </c>
-      <c r="C174" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>176</v>
       </c>
-      <c r="B175" t="s">
-        <v>146</v>
+      <c r="B175">
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>177</v>
       </c>
-      <c r="B176" t="s">
-        <v>146</v>
+      <c r="B176">
+        <v>27</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>178</v>
       </c>
-      <c r="B177" t="s">
-        <v>146</v>
+      <c r="B177">
+        <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>179</v>
       </c>
-      <c r="B178" t="s">
-        <v>146</v>
+      <c r="B178">
+        <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3315,7 +3309,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3326,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3337,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3348,7 +3342,7 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3359,7 +3353,7 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3370,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3381,7 +3375,7 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3392,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3403,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3425,7 +3419,7 @@
         <v>8</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3447,7 +3441,7 @@
         <v>8</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3458,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3469,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3480,7 +3474,7 @@
         <v>8</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3502,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -3513,7 +3507,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -3524,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -3546,7 +3540,7 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -3557,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -3579,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -3590,7 +3584,7 @@
         <v>8</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -3601,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -3612,7 +3606,7 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -3623,7 +3617,7 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -3634,7 +3628,7 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -3645,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -3656,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -3667,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -3678,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -3689,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -3700,7 +3694,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -3711,7 +3705,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -3722,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -3733,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -3744,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -3766,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3777,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -3788,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3810,7 +3804,7 @@
         <v>9</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -3821,7 +3815,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -3832,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -3843,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -3854,7 +3848,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3876,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -3887,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -3898,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3909,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -3920,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3942,7 +3936,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -3953,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3964,7 +3958,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3975,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3986,7 +3980,7 @@
         <v>10</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3997,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4008,7 +4002,7 @@
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4019,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4030,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4041,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4052,7 +4046,7 @@
         <v>10</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4063,7 +4057,7 @@
         <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4074,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4085,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4096,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4107,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4118,7 +4112,7 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4129,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4140,7 +4134,7 @@
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4151,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4162,7 +4156,7 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4173,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4184,7 +4178,7 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4195,7 +4189,7 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4228,7 +4222,7 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4261,7 +4255,7 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -4283,7 +4277,7 @@
         <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -4294,7 +4288,7 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -4305,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -4316,7 +4310,7 @@
         <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4327,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4338,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -4360,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -4371,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -4382,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -4393,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -4415,7 +4409,7 @@
         <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -4426,7 +4420,7 @@
         <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -4437,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -4459,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -4481,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="C285" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -4492,7 +4486,7 @@
         <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -4503,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="C287" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -4514,7 +4508,7 @@
         <v>12</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -4525,7 +4519,7 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -4536,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -4547,7 +4541,7 @@
         <v>12</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -4558,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="C292" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -4569,7 +4563,7 @@
         <v>12</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -4580,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -4591,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -4602,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -4613,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -4624,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -4635,7 +4629,7 @@
         <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -4646,7 +4640,7 @@
         <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -4657,7 +4651,7 @@
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -4668,7 +4662,7 @@
         <v>13</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -4679,7 +4673,7 @@
         <v>13</v>
       </c>
       <c r="C303" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -4690,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -4701,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="C305" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -4712,7 +4706,7 @@
         <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -4734,7 +4728,7 @@
         <v>13</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -4756,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="C310" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -4778,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -4789,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="C313" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -4800,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -4811,7 +4805,7 @@
         <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -4822,7 +4816,7 @@
         <v>13</v>
       </c>
       <c r="C316" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -4833,7 +4827,7 @@
         <v>13</v>
       </c>
       <c r="C317" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -4844,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -4855,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="C319" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -4877,7 +4871,7 @@
         <v>14</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -4888,7 +4882,7 @@
         <v>14</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -4921,7 +4915,7 @@
         <v>14</v>
       </c>
       <c r="C325" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -4932,7 +4926,7 @@
         <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -4943,7 +4937,7 @@
         <v>14</v>
       </c>
       <c r="C327" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -4954,7 +4948,7 @@
         <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -4965,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
